--- a/api assignment 3.3.xlsx
+++ b/api assignment 3.3.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="API" sheetId="1" r:id="rId1"/>
+    <sheet name="USERS" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -145,183 +145,12 @@
     <t>{question_id, question}</t>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>F.KEY</t>
-  </si>
-  <si>
-    <t>F.KEY+P.KEY</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>sites</t>
-  </si>
-  <si>
-    <t>siteID</t>
-  </si>
-  <si>
-    <t>siteName</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>reviews</t>
-  </si>
-  <si>
-    <t>REVIEW</t>
-  </si>
-  <si>
-    <t>P.KEY</t>
-  </si>
-  <si>
-    <t>DETAIL</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>VIEWS</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>auto 1..n</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <t>Catagories</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int </t>
-  </si>
-  <si>
-    <t>p.k</t>
-  </si>
-  <si>
-    <t>CatagoryPerUser</t>
-  </si>
-  <si>
-    <t>catagoryID</t>
-  </si>
-  <si>
-    <t>queID</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>categoryID</t>
-  </si>
-  <si>
-    <t>f.key</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>FavoritePerUser</t>
-  </si>
-  <si>
-    <t>pictureUrls</t>
-  </si>
-  <si>
-    <t>auto 1…n</t>
-  </si>
-  <si>
-    <t>p.key</t>
-  </si>
-  <si>
-    <t>p.key+f.key</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>varchar(60)</t>
-  </si>
-  <si>
-    <t>numeric(18,2)</t>
-  </si>
-  <si>
-    <t>default 0</t>
-  </si>
-  <si>
-    <t>varchar(1)</t>
-  </si>
-  <si>
-    <t>Ranking</t>
-  </si>
-  <si>
-    <t>p+f.key</t>
-  </si>
-  <si>
     <t>removeFavoriteSite</t>
   </si>
   <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>auto1..n</t>
-  </si>
-  <si>
-    <t>VerifyQuestion</t>
-  </si>
-  <si>
-    <t>questionID</t>
-  </si>
-  <si>
     <t>{first_name, last_name, city, country, email, categories, validation_questionsID&amp;answers}</t>
   </si>
   <si>
@@ -329,9 +158,6 @@
   </si>
   <si>
     <t>{Urls[]}</t>
-  </si>
-  <si>
-    <t>rankedPeople</t>
   </si>
   <si>
     <t>{userName,
@@ -505,13 +331,88 @@
   </si>
   <si>
     <t>הוספנו את הפוקנציונאליות הזו כדי להחזיר את כל האתרים השמורים למשתמש מסויים על פי הסדר כך שהיה ניתן להקל על צד הלקוח בפונקציונאליות שיש לבצע.</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>FafLqMa</t>
+  </si>
+  <si>
+    <t>81723878ec</t>
+  </si>
+  <si>
+    <t>hSKJoph</t>
+  </si>
+  <si>
+    <t>f5f3d94472</t>
+  </si>
+  <si>
+    <t>kjoZnQW</t>
+  </si>
+  <si>
+    <t>d08c96a4c4</t>
+  </si>
+  <si>
+    <t>maorreb</t>
+  </si>
+  <si>
+    <t>yael1992</t>
+  </si>
+  <si>
+    <t>MgEkrTM</t>
+  </si>
+  <si>
+    <t>8c3d27b243</t>
+  </si>
+  <si>
+    <t>oBjEOZr</t>
+  </si>
+  <si>
+    <t>f03e902f17</t>
+  </si>
+  <si>
+    <t>OWuEeFO</t>
+  </si>
+  <si>
+    <t>89dd067477</t>
+  </si>
+  <si>
+    <t>OyQMHuS</t>
+  </si>
+  <si>
+    <t>c1dc5a3122</t>
+  </si>
+  <si>
+    <t>ujnuEgd</t>
+  </si>
+  <si>
+    <t>170f3bb379</t>
+  </si>
+  <si>
+    <t>vTIYlRR</t>
+  </si>
+  <si>
+    <t>3c61afc27d</t>
+  </si>
+  <si>
+    <t>yaelshe</t>
+  </si>
+  <si>
+    <t>YHqWOHd</t>
+  </si>
+  <si>
+    <t>8d9f9053fe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,28 +429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -569,11 +448,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF252525"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -590,7 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -815,22 +700,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -841,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -851,41 +729,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1170,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,8 +1078,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>116</v>
+      <c r="B1" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1209,18 +1096,18 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>151</v>
+      <c r="H1" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1232,45 +1119,45 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1282,20 +1169,20 @@
       <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1307,21 +1194,21 @@
       <c r="F5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>149</v>
+      <c r="B6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -1332,96 +1219,96 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="16"/>
-      <c r="Q6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="9"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>110</v>
+      <c r="B7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="16"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="16"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1433,20 +1320,20 @@
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1456,29 +1343,29 @@
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="13"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1488,23 +1375,23 @@
         <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="16"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>131</v>
+      <c r="B13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -1513,22 +1400,22 @@
         <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1540,126 +1427,126 @@
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>150</v>
+      <c r="B15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>95</v>
+      <c r="B16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="20"/>
+      <c r="G16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>101</v>
+      <c r="B17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="16"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="31" t="s">
+      <c r="B18" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="16"/>
+      <c r="G18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="33" t="s">
+      <c r="B19" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1668,91 +1555,91 @@
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="33" t="s">
-        <v>160</v>
+      <c r="H19" s="23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="23">
         <v>19</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="33" t="s">
+      <c r="B20" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>154</v>
+      <c r="F20" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="33" t="s">
-        <v>157</v>
+      <c r="H20" s="23" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="23">
         <v>20</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="33" t="s">
+      <c r="B21" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>144</v>
+      <c r="F21" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="33" t="s">
-        <v>152</v>
+      <c r="H21" s="23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="A22" s="23">
         <v>21</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="33" t="s">
+      <c r="B22" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>148</v>
+      <c r="E22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="33" t="s">
-        <v>153</v>
+      <c r="H22" s="23" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="28" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -1760,7 +1647,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="26" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -1768,7 +1655,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="26" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -1776,7 +1663,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="26" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -1784,7 +1671,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="26" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -1806,481 +1693,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="15" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>86</v>
+      <c r="B1" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
